--- a/src/main/java/excel/Test Cases.xlsx
+++ b/src/main/java/excel/Test Cases.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>Description</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>Welcome@05</t>
+  </si>
+  <si>
+    <t>n</t>
   </si>
 </sst>
 </file>
@@ -619,7 +622,7 @@
   <dimension ref="A1:AS4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B3" sqref="B3:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -852,7 +855,7 @@
     </row>
     <row r="4" spans="1:45" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6" t="s">
